--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>App</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H2">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I2">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J2">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q2">
-        <v>21.96204967741129</v>
+        <v>38.18579623010289</v>
       </c>
       <c r="R2">
-        <v>21.96204967741129</v>
+        <v>343.672166070926</v>
       </c>
       <c r="S2">
-        <v>0.002276784232716187</v>
+        <v>0.002901300163244487</v>
       </c>
       <c r="T2">
-        <v>0.002276784232716187</v>
+        <v>0.002901300163244486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H3">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I3">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J3">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N3">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O3">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P3">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q3">
-        <v>25.17945717793151</v>
+        <v>35.19362219304868</v>
       </c>
       <c r="R3">
-        <v>25.17945717793151</v>
+        <v>316.7425997374381</v>
       </c>
       <c r="S3">
-        <v>0.00261032972482668</v>
+        <v>0.002673959217677987</v>
       </c>
       <c r="T3">
-        <v>0.00261032972482668</v>
+        <v>0.002673959217677986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H4">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I4">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J4">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N4">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O4">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P4">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q4">
-        <v>22.08318489827701</v>
+        <v>35.65502357475333</v>
       </c>
       <c r="R4">
-        <v>22.08318489827701</v>
+        <v>320.89521217278</v>
       </c>
       <c r="S4">
-        <v>0.002289342202711917</v>
+        <v>0.002709015810343865</v>
       </c>
       <c r="T4">
-        <v>0.002289342202711917</v>
+        <v>0.002709015810343864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H5">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I5">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J5">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N5">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O5">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P5">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q5">
-        <v>19.64544996624419</v>
+        <v>27.283752826246</v>
       </c>
       <c r="R5">
-        <v>19.64544996624419</v>
+        <v>245.553775436214</v>
       </c>
       <c r="S5">
-        <v>0.002036624604021556</v>
+        <v>0.002072979074515333</v>
       </c>
       <c r="T5">
-        <v>0.002036624604021556</v>
+        <v>0.002072979074515332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H6">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I6">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J6">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N6">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O6">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P6">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q6">
-        <v>20.71433506635459</v>
+        <v>29.06054771128522</v>
       </c>
       <c r="R6">
-        <v>20.71433506635459</v>
+        <v>261.544929401567</v>
       </c>
       <c r="S6">
-        <v>0.002147434878028891</v>
+        <v>0.002207977314671248</v>
       </c>
       <c r="T6">
-        <v>0.002147434878028891</v>
+        <v>0.002207977314671247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H7">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I7">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J7">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N7">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O7">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P7">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q7">
-        <v>11.3253255032345</v>
+        <v>17.65601884045767</v>
       </c>
       <c r="R7">
-        <v>11.3253255032345</v>
+        <v>158.904169564119</v>
       </c>
       <c r="S7">
-        <v>0.00117408542986149</v>
+        <v>0.001341478125410548</v>
       </c>
       <c r="T7">
-        <v>0.00117408542986149</v>
+        <v>0.001341478125410547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H8">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I8">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J8">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N8">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O8">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P8">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q8">
-        <v>207.40637502521</v>
+        <v>262.5838954890115</v>
       </c>
       <c r="R8">
-        <v>207.40637502521</v>
+        <v>2363.255059401104</v>
       </c>
       <c r="S8">
-        <v>0.02150161625888281</v>
+        <v>0.01995073493444842</v>
       </c>
       <c r="T8">
-        <v>0.02150161625888281</v>
+        <v>0.01995073493444842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H9">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I9">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J9">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q9">
-        <v>237.7910994231413</v>
+        <v>242.0082681039947</v>
       </c>
       <c r="R9">
-        <v>237.7910994231413</v>
+        <v>2178.074412935952</v>
       </c>
       <c r="S9">
-        <v>0.02465157095076161</v>
+        <v>0.01838742928196743</v>
       </c>
       <c r="T9">
-        <v>0.02465157095076161</v>
+        <v>0.01838742928196743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H10">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I10">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J10">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N10">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P10">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q10">
-        <v>208.5503582788986</v>
+        <v>245.1810858570133</v>
       </c>
       <c r="R10">
-        <v>208.5503582788986</v>
+        <v>2206.62977271312</v>
       </c>
       <c r="S10">
-        <v>0.02162021188509927</v>
+        <v>0.01862849526915565</v>
       </c>
       <c r="T10">
-        <v>0.02162021188509927</v>
+        <v>0.01862849526915564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H11">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I11">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J11">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N11">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O11">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P11">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q11">
-        <v>185.5287472293032</v>
+        <v>187.616203090384</v>
       </c>
       <c r="R11">
-        <v>185.5287472293032</v>
+        <v>1688.545827813456</v>
       </c>
       <c r="S11">
-        <v>0.01923358396014041</v>
+        <v>0.01425480085247853</v>
       </c>
       <c r="T11">
-        <v>0.01923358396014041</v>
+        <v>0.01425480085247852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H12">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I12">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J12">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N12">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O12">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P12">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q12">
-        <v>195.6231412949162</v>
+        <v>199.8342990438408</v>
       </c>
       <c r="R12">
-        <v>195.6231412949162</v>
+        <v>1798.508691394568</v>
       </c>
       <c r="S12">
-        <v>0.02028005993050715</v>
+        <v>0.01518311366205551</v>
       </c>
       <c r="T12">
-        <v>0.02028005993050715</v>
+        <v>0.01518311366205551</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H13">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I13">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J13">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N13">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O13">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P13">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q13">
-        <v>106.9547124748743</v>
+        <v>121.4112749677306</v>
       </c>
       <c r="R13">
-        <v>106.9547124748743</v>
+        <v>1092.701474709576</v>
       </c>
       <c r="S13">
-        <v>0.01108789054547801</v>
+        <v>0.009224648603920159</v>
       </c>
       <c r="T13">
-        <v>0.01108789054547801</v>
+        <v>0.009224648603920155</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H14">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I14">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J14">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N14">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O14">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P14">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q14">
-        <v>329.442887856609</v>
+        <v>718.7712499697448</v>
       </c>
       <c r="R14">
-        <v>329.442887856609</v>
+        <v>6468.941249727704</v>
       </c>
       <c r="S14">
-        <v>0.03415302231211539</v>
+        <v>0.05461117354490858</v>
       </c>
       <c r="T14">
-        <v>0.03415302231211539</v>
+        <v>0.05461117354490857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H15">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I15">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J15">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N15">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O15">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P15">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q15">
-        <v>377.7057792511718</v>
+        <v>662.4495574801947</v>
       </c>
       <c r="R15">
-        <v>377.7057792511718</v>
+        <v>5962.046017321753</v>
       </c>
       <c r="S15">
-        <v>0.03915638910922514</v>
+        <v>0.05033193488167704</v>
       </c>
       <c r="T15">
-        <v>0.03915638910922514</v>
+        <v>0.05033193488167703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H16">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I16">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J16">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q16">
-        <v>331.2599831445865</v>
+        <v>671.1345157790131</v>
       </c>
       <c r="R16">
-        <v>331.2599831445865</v>
+        <v>6040.210642011119</v>
       </c>
       <c r="S16">
-        <v>0.03434139880528329</v>
+        <v>0.05099180513234028</v>
       </c>
       <c r="T16">
-        <v>0.03434139880528329</v>
+        <v>0.05099180513234027</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H17">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I17">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J17">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N17">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O17">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P17">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q17">
-        <v>294.6926113539727</v>
+        <v>513.562084828984</v>
       </c>
       <c r="R17">
-        <v>294.6926113539727</v>
+        <v>4622.058763460856</v>
       </c>
       <c r="S17">
-        <v>0.03055049509876943</v>
+        <v>0.03901968552840873</v>
       </c>
       <c r="T17">
-        <v>0.03055049509876943</v>
+        <v>0.03901968552840872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H18">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I18">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J18">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N18">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O18">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P18">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q18">
-        <v>310.7264788362714</v>
+        <v>547.0066953004741</v>
       </c>
       <c r="R18">
-        <v>310.7264788362714</v>
+        <v>4923.060257704267</v>
       </c>
       <c r="S18">
-        <v>0.03221271047526526</v>
+        <v>0.04156075742948615</v>
       </c>
       <c r="T18">
-        <v>0.03221271047526526</v>
+        <v>0.04156075742948614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H19">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I19">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J19">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N19">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O19">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P19">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q19">
-        <v>169.8861442581649</v>
+        <v>332.3392461158306</v>
       </c>
       <c r="R19">
-        <v>169.8861442581649</v>
+        <v>2991.053215042476</v>
       </c>
       <c r="S19">
-        <v>0.01761193059324368</v>
+        <v>0.02525064301915202</v>
       </c>
       <c r="T19">
-        <v>0.01761193059324368</v>
+        <v>0.02525064301915202</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H20">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I20">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J20">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N20">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O20">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P20">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q20">
-        <v>923.842963485234</v>
+        <v>1265.211547469924</v>
       </c>
       <c r="R20">
-        <v>923.842963485234</v>
+        <v>11386.90392722931</v>
       </c>
       <c r="S20">
-        <v>0.09577389741233425</v>
+        <v>0.09612889690956719</v>
       </c>
       <c r="T20">
-        <v>0.09577389741233425</v>
+        <v>0.09612889690956718</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H21">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I21">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J21">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N21">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O21">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P21">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q21">
-        <v>1059.184578848094</v>
+        <v>1166.071722784632</v>
       </c>
       <c r="R21">
-        <v>1059.184578848094</v>
+        <v>10494.64550506168</v>
       </c>
       <c r="S21">
-        <v>0.1098046304456646</v>
+        <v>0.08859640006675636</v>
       </c>
       <c r="T21">
-        <v>0.1098046304456646</v>
+        <v>0.08859640006675634</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H22">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I22">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J22">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N22">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O22">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P22">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q22">
-        <v>928.938568088211</v>
+        <v>1181.359353626047</v>
       </c>
       <c r="R22">
-        <v>928.938568088211</v>
+        <v>10632.23418263442</v>
       </c>
       <c r="S22">
-        <v>0.09630215376302206</v>
+        <v>0.08975793158461567</v>
       </c>
       <c r="T22">
-        <v>0.09630215376302206</v>
+        <v>0.08975793158461567</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H23">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I23">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J23">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q23">
-        <v>826.3942110322744</v>
+        <v>903.9936977107941</v>
       </c>
       <c r="R23">
-        <v>826.3942110322744</v>
+        <v>8135.943279397148</v>
       </c>
       <c r="S23">
-        <v>0.08567148045482403</v>
+        <v>0.06868410041618367</v>
       </c>
       <c r="T23">
-        <v>0.08567148045482403</v>
+        <v>0.06868410041618365</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H24">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I24">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J24">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N24">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O24">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P24">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q24">
-        <v>871.3573175280615</v>
+        <v>962.8643152695014</v>
       </c>
       <c r="R24">
-        <v>871.3573175280615</v>
+        <v>8665.778837425512</v>
       </c>
       <c r="S24">
-        <v>0.09033276177543041</v>
+        <v>0.07315700262579464</v>
       </c>
       <c r="T24">
-        <v>0.09033276177543041</v>
+        <v>0.07315700262579462</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H25">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I25">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J25">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="N25">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="O25">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="P25">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="Q25">
-        <v>476.404635679539</v>
+        <v>584.9975939923823</v>
       </c>
       <c r="R25">
-        <v>476.404635679539</v>
+        <v>5264.978345931441</v>
       </c>
       <c r="S25">
-        <v>0.04938840312449044</v>
+        <v>0.04444724956683607</v>
       </c>
       <c r="T25">
-        <v>0.04938840312449044</v>
+        <v>0.04444724956683606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>3.56343507638318</v>
+        <v>0.928157</v>
       </c>
       <c r="H26">
-        <v>3.56343507638318</v>
+        <v>2.784471</v>
       </c>
       <c r="I26">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="J26">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="N26">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="O26">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="P26">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="Q26">
-        <v>269.4596963880821</v>
+        <v>88.47472394274067</v>
       </c>
       <c r="R26">
-        <v>269.4596963880821</v>
+        <v>796.272515484666</v>
       </c>
       <c r="S26">
-        <v>0.02793462345729431</v>
+        <v>0.006722178306072022</v>
       </c>
       <c r="T26">
-        <v>0.02793462345729431</v>
+        <v>0.006722178306072021</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>3.56343507638318</v>
+        <v>0.928157</v>
       </c>
       <c r="H27">
-        <v>3.56343507638318</v>
+        <v>2.784471</v>
       </c>
       <c r="I27">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="J27">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="N27">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="O27">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="P27">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="Q27">
-        <v>308.9351397543091</v>
+        <v>81.54199507356202</v>
       </c>
       <c r="R27">
-        <v>308.9351397543091</v>
+        <v>733.8779556620581</v>
       </c>
       <c r="S27">
-        <v>0.03202700410281066</v>
+        <v>0.006195439848697092</v>
       </c>
       <c r="T27">
-        <v>0.03202700410281066</v>
+        <v>0.006195439848697091</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>3.56343507638318</v>
+        <v>0.928157</v>
       </c>
       <c r="H28">
-        <v>3.56343507638318</v>
+        <v>2.784471</v>
       </c>
       <c r="I28">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="J28">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="N28">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="O28">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="P28">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="Q28">
-        <v>270.9459447262758</v>
+        <v>82.61104073721998</v>
       </c>
       <c r="R28">
-        <v>270.9459447262758</v>
+        <v>743.4993666349799</v>
       </c>
       <c r="S28">
-        <v>0.0280887013704219</v>
+        <v>0.006276664352693203</v>
       </c>
       <c r="T28">
-        <v>0.0280887013704219</v>
+        <v>0.006276664352693202</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>3.56343507638318</v>
+        <v>0.928157</v>
       </c>
       <c r="H29">
-        <v>3.56343507638318</v>
+        <v>2.784471</v>
       </c>
       <c r="I29">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="J29">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="N29">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="O29">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="P29">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="Q29">
-        <v>241.0365635752168</v>
+        <v>63.215193546786</v>
       </c>
       <c r="R29">
-        <v>241.0365635752168</v>
+        <v>568.936741921074</v>
       </c>
       <c r="S29">
-        <v>0.02498802504852694</v>
+        <v>0.004802996649634819</v>
       </c>
       <c r="T29">
-        <v>0.02498802504852694</v>
+        <v>0.004802996649634819</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>3.56343507638318</v>
+        <v>0.928157</v>
       </c>
       <c r="H30">
-        <v>3.56343507638318</v>
+        <v>2.784471</v>
       </c>
       <c r="I30">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="J30">
-        <v>0.153791192027296</v>
+        <v>0.03222120326531652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="N30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="O30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="P30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="Q30">
-        <v>254.1510705898209</v>
+        <v>67.33194512659966</v>
       </c>
       <c r="R30">
-        <v>254.1510705898209</v>
+        <v>605.9875061393969</v>
       </c>
       <c r="S30">
-        <v>0.02634759317760769</v>
+        <v>0.005115781329010829</v>
       </c>
       <c r="T30">
-        <v>0.02634759317760769</v>
+        <v>0.005115781329010828</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.928157</v>
+      </c>
+      <c r="H31">
+        <v>2.784471</v>
+      </c>
+      <c r="I31">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J31">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>44.074633</v>
+      </c>
+      <c r="N31">
+        <v>132.223899</v>
+      </c>
+      <c r="O31">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="P31">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="Q31">
+        <v>40.908179141381</v>
+      </c>
+      <c r="R31">
+        <v>368.173612272429</v>
+      </c>
+      <c r="S31">
+        <v>0.003108142779208551</v>
+      </c>
+      <c r="T31">
+        <v>0.00310814277920855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.909097</v>
+      </c>
+      <c r="H32">
+        <v>11.727291</v>
+      </c>
+      <c r="I32">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J32">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>95.32301533333333</v>
+      </c>
+      <c r="N32">
+        <v>285.969046</v>
+      </c>
+      <c r="O32">
+        <v>0.2086259240761469</v>
+      </c>
+      <c r="P32">
+        <v>0.2086259240761469</v>
+      </c>
+      <c r="Q32">
+        <v>372.6269132704874</v>
+      </c>
+      <c r="R32">
+        <v>3353.642219434386</v>
+      </c>
+      <c r="S32">
+        <v>0.02831164021790626</v>
+      </c>
+      <c r="T32">
+        <v>0.02831164021790626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.909097</v>
+      </c>
+      <c r="H33">
+        <v>11.727291</v>
+      </c>
+      <c r="I33">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J33">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>87.85366600000002</v>
+      </c>
+      <c r="N33">
+        <v>263.560998</v>
+      </c>
+      <c r="O33">
+        <v>0.1922783515464171</v>
+      </c>
+      <c r="P33">
+        <v>0.1922783515464171</v>
+      </c>
+      <c r="Q33">
+        <v>343.4285021996021</v>
+      </c>
+      <c r="R33">
+        <v>3090.856519796419</v>
+      </c>
+      <c r="S33">
+        <v>0.02609318824964123</v>
+      </c>
+      <c r="T33">
+        <v>0.02609318824964123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.909097</v>
+      </c>
+      <c r="H34">
+        <v>11.727291</v>
+      </c>
+      <c r="I34">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J34">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>89.00545999999999</v>
+      </c>
+      <c r="N34">
+        <v>267.01638</v>
+      </c>
+      <c r="O34">
+        <v>0.1947991917312883</v>
+      </c>
+      <c r="P34">
+        <v>0.1947991917312882</v>
+      </c>
+      <c r="Q34">
+        <v>347.93097666962</v>
+      </c>
+      <c r="R34">
+        <v>3131.37879002658</v>
+      </c>
+      <c r="S34">
+        <v>0.0264352795821396</v>
+      </c>
+      <c r="T34">
+        <v>0.0264352795821396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.909097</v>
+      </c>
+      <c r="H35">
+        <v>11.727291</v>
+      </c>
+      <c r="I35">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J35">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.108298</v>
+      </c>
+      <c r="N35">
+        <v>204.324894</v>
+      </c>
+      <c r="O35">
+        <v>0.1490632305096083</v>
+      </c>
+      <c r="P35">
+        <v>0.1490632305096083</v>
+      </c>
+      <c r="Q35">
+        <v>266.241943386906</v>
+      </c>
+      <c r="R35">
+        <v>2396.177490482155</v>
+      </c>
+      <c r="S35">
+        <v>0.02022866798838723</v>
+      </c>
+      <c r="T35">
+        <v>0.02022866798838723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3.56343507638318</v>
-      </c>
-      <c r="H31">
-        <v>3.56343507638318</v>
-      </c>
-      <c r="I31">
-        <v>0.153791192027296</v>
-      </c>
-      <c r="J31">
-        <v>0.153791192027296</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="N31">
-        <v>38.9944490781292</v>
-      </c>
-      <c r="O31">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="P31">
-        <v>0.09366755456370807</v>
-      </c>
-      <c r="Q31">
-        <v>138.9541876292433</v>
-      </c>
-      <c r="R31">
-        <v>138.9541876292433</v>
-      </c>
-      <c r="S31">
-        <v>0.01440524487063445</v>
-      </c>
-      <c r="T31">
-        <v>0.01440524487063445</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.909097</v>
+      </c>
+      <c r="H36">
+        <v>11.727291</v>
+      </c>
+      <c r="I36">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J36">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="N36">
+        <v>217.631107</v>
+      </c>
+      <c r="O36">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="P36">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="Q36">
+        <v>283.5803691601263</v>
+      </c>
+      <c r="R36">
+        <v>2552.223322441137</v>
+      </c>
+      <c r="S36">
+        <v>0.02154601586357938</v>
+      </c>
+      <c r="T36">
+        <v>0.02154601586357937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.909097</v>
+      </c>
+      <c r="H37">
+        <v>11.727291</v>
+      </c>
+      <c r="I37">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J37">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>44.074633</v>
+      </c>
+      <c r="N37">
+        <v>132.223899</v>
+      </c>
+      <c r="O37">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="P37">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="Q37">
+        <v>172.292015636401</v>
+      </c>
+      <c r="R37">
+        <v>1550.628140727609</v>
+      </c>
+      <c r="S37">
+        <v>0.01309049181741431</v>
+      </c>
+      <c r="T37">
+        <v>0.0130904918174143</v>
       </c>
     </row>
   </sheetData>
